--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_1.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_1.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_1.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-252551.3153777583</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17519797.43398183</v>
+        <v>17011377.65875425</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28785902.26853178</v>
+        <v>28277482.49330417</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.306161600803799e-10</v>
+        <v>285554.5009031522</v>
       </c>
     </row>
     <row r="11">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22646,7 +22646,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>103.0555716666667</v>
@@ -22673,7 +22673,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -22728,7 +22728,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>104.82327226356</v>
@@ -22749,7 +22749,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -22831,7 +22831,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -22883,7 +22883,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>103.0555716666667</v>
@@ -22910,7 +22910,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -22965,7 +22965,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>104.82327226356</v>
@@ -22986,7 +22986,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -23068,7 +23068,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -23147,7 +23147,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -23202,7 +23202,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>104.82327226356</v>
@@ -23220,10 +23220,10 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -23305,7 +23305,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R11" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
@@ -23357,7 +23357,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>103.0555716666667</v>
@@ -23384,7 +23384,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -23460,7 +23460,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23542,7 +23542,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R14" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
@@ -23594,7 +23594,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>103.0555716666667</v>
@@ -23621,7 +23621,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -23676,7 +23676,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>104.82327226356</v>
@@ -23697,7 +23697,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
         <v>148.0265635717656</v>
@@ -23773,13 +23773,13 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>180.6233730229902</v>
       </c>
       <c r="R17" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23858,7 +23858,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -23913,7 +23913,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>104.82327226356</v>
@@ -23934,7 +23934,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -23992,7 +23992,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>178.8230039740467</v>
@@ -24016,7 +24016,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R20" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>185.3566856159496</v>
@@ -24068,7 +24068,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>103.0555716666667</v>
@@ -24095,7 +24095,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -24150,7 +24150,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
         <v>104.82327226356</v>
@@ -24171,7 +24171,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -24229,7 +24229,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>178.8230039740467</v>
@@ -24253,7 +24253,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R23" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24305,7 +24305,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>103.0555716666667</v>
@@ -24332,7 +24332,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -24387,7 +24387,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>104.82327226356</v>
@@ -24408,7 +24408,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -24542,7 +24542,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>103.0555716666667</v>
@@ -24624,7 +24624,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>104.82327226356</v>
@@ -24645,7 +24645,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24727,7 +24727,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R29" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
@@ -24779,7 +24779,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>103.0555716666667</v>
@@ -24806,7 +24806,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -24861,7 +24861,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>104.82327226356</v>
@@ -24964,7 +24964,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R32" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -25016,7 +25016,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>103.0555716666667</v>
@@ -25098,7 +25098,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>104.82327226356</v>
@@ -25119,7 +25119,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25253,7 +25253,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>103.0555716666667</v>
@@ -25280,7 +25280,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -25335,7 +25335,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>104.82327226356</v>
@@ -25438,7 +25438,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R38" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
@@ -25490,7 +25490,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>103.0555716666667</v>
@@ -25517,7 +25517,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -25572,7 +25572,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>104.82327226356</v>
@@ -25675,7 +25675,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R41" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25727,7 +25727,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>103.0555716666667</v>
@@ -25754,7 +25754,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -25809,7 +25809,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>104.82327226356</v>
@@ -25912,7 +25912,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R44" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25964,7 +25964,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>103.0555716666667</v>
@@ -25991,7 +25991,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>22996.49491294535</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>22996.49491294535</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>26772.92260357322</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>21133.71986849294</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>22996.49491294535</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>48550.92641426</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>43780.22529153794</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>43780.22529153794</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>6472.150928935562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>19377.80187798547</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>18542.74578194534</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>7307.207024975689</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>19377.80187798547</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>19377.80187798547</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.129592419601977e-11</v>
+        <v>17515.02683353306</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>323.894294548526</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>323.894294548526</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>377.0834169517354</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>297.6580263168018</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.894294548526</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>683.8158649895774</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>616.6228914301118</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>616.6228914301118</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>91.15705533712037</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>272.9267870138798</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>261.1654335485259</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>102.9184088024743</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>272.9267870138798</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>272.9267870138798</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>246.6905187821557</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>647.7885890970521</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>647.7885890970521</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>754.1668339034709</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>595.3160526336037</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>647.7885890970521</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1367.631729979155</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1233.245782860224</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1233.245782860224</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>182.3141106742407</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>545.8535740277597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>522.3308670970519</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.8368176049486</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>545.8535740277597</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>545.8535740277597</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>493.3810375643113</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-19190.60151235455</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
     </row>
   </sheetData>
